--- a/CodeSystem-SzMalariaEncounterCodesCS.xlsx
+++ b/CodeSystem-SzMalariaEncounterCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzMalariaEncounterCodesCS.xlsx
+++ b/CodeSystem-SzMalariaEncounterCodesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
